--- a/business-analyst.xlsx
+++ b/business-analyst.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>location</t>
   </si>
@@ -28,85 +28,82 @@
     <t>company</t>
   </si>
   <si>
-    <t xml:space="preserve"> 33154 Salzkotten                                                (19 km)                                            </t>
+    <t xml:space="preserve"> 59556 Lippstadt                                                (19 km)                                            </t>
   </si>
   <si>
     <t xml:space="preserve"> 33649 Brackwede                                                (19 km)                                            </t>
   </si>
   <si>
-    <t xml:space="preserve"> 59556 Lippstadt                                                (19 km)                                            </t>
-  </si>
-  <si>
     <t xml:space="preserve"> 48147 Wienburg                                                (58 km)                                            </t>
   </si>
   <si>
-    <t xml:space="preserve"> 30159 Mitte                                                (110 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 99084 Erfurt                                                (203 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 64625 Bensheim                                                (236 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 70173 Stuttgart-​Mitte                                                (340 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10178 Mitte                                                (349 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 71032 Böblingen                                                (350 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 82152 Krailling                                                (464 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 80333 Maxvorstadt                                                (465 km)                                            </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 18:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        17.11.2022</t>
+    <t xml:space="preserve"> 61184 Karben                                                (176 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 61440 Oberursel (Taunus)                                                (178 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60437 Harheim                                                (179 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 60311 Innenstadt                                                (189 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 55122 Mainz                                                (201 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04105 Mitte                                                (276 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 14473 Potsdam                                                (322 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74405 Gaildorf                                                (326 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 85764 Oberschleißheim                                                (454 km)                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Gestern, 21:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Gestern, 16:48</t>
   </si>
   <si>
     <t xml:space="preserve">                                        26.10.2022</t>
   </si>
   <si>
-    <t xml:space="preserve">                                        23.10.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 18:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 18:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 19:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 22:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 20:03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 20:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Heute, 07:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 22:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                        Gestern, 19:01</t>
-  </si>
-  <si>
-    <t>Business Intelligence Analyst - Data Science / Visualisierung / K</t>
-  </si>
-  <si>
-    <t>IT Business Analyst (m/w/d) (Bielefeld)</t>
+    <t xml:space="preserve">                                        Heute, 12:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 21:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 16:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 17:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 20:02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 16:04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 14:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 14:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 18:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        Heute, 15:14</t>
+  </si>
+  <si>
+    <t>Business Analyst (m/w/d) (16370383)</t>
   </si>
   <si>
     <t>Business Analyst (m/w/d) Production (Bielefeld)</t>
@@ -115,49 +112,52 @@
     <t>Business Analyst (m/w/d) für digitale Transformatio... (15821496)</t>
   </si>
   <si>
-    <t>Business Analyst (m/w/d) (16370383)</t>
-  </si>
-  <si>
     <t>Business Analyst Kundenservice BPMN (m/w/d) in 48147</t>
   </si>
   <si>
-    <t>Business Analyst (m/w/d) PLM (Hannover)</t>
-  </si>
-  <si>
-    <t>IT Business Analyst / Requirements Engineer Team DB SmartLo Erfur</t>
-  </si>
-  <si>
-    <t>Sales Consultant - Business Analyst (w/m/d) (Bensheim)</t>
-  </si>
-  <si>
-    <t>Senior Business Analyst/ Requirements Engineer (w/m/d) Stuttgart</t>
-  </si>
-  <si>
-    <t>Business Analyst (m/w/d) PLM (Stuttgart)</t>
-  </si>
-  <si>
-    <t>Business Analyst Sprintstarter-Programm (w/m/d) Berlin</t>
-  </si>
-  <si>
-    <t>IT Business Analyst Research &amp; Development (w/m/d) (Böblingen)</t>
-  </si>
-  <si>
-    <t>Commercial Business Analyst (w/m/d) (Martinsried)</t>
-  </si>
-  <si>
-    <t>Analyst Business Development - Projektmanagement / Beratung / Kun</t>
+    <t>Business Analyst (w/m/d) Schwerpunkt CRM</t>
+  </si>
+  <si>
+    <t>Senior Business Analyst (m/w/d)* Privatschutz (Oberursel)</t>
+  </si>
+  <si>
+    <t>(Senior) IT-Business Analyst /</t>
+  </si>
+  <si>
+    <t>Senior IT-Business Analyst Strategische Fahrzeug-IT (w/m/d)</t>
+  </si>
+  <si>
+    <t>Business Analyst* Digital Innovation - Manufacturing (Mainz)</t>
+  </si>
+  <si>
+    <t>Data &amp; Business Intelligence Analyst (m/w/d) Reise (Leipzig)</t>
+  </si>
+  <si>
+    <t>Business Analyst - Automation / IT Support / Kundenservice (m/w/d</t>
+  </si>
+  <si>
+    <t>Business Analyst Vertrieb - CRM (m/w/d) in 74405</t>
+  </si>
+  <si>
+    <t>Projektmanager / Business Analyst (m/w/d) (16515838)</t>
+  </si>
+  <si>
+    <t>hokify GmbH</t>
+  </si>
+  <si>
+    <t>allnetjob</t>
   </si>
   <si>
     <t>Jobsier.co - Dein kostenfreies Job Portal in Deutschland</t>
   </si>
   <si>
-    <t>allnetjob</t>
+    <t>JobNinja - Mit einem Click zum neuen Job!</t>
   </si>
   <si>
     <t>my-perfect-job.de</t>
   </si>
   <si>
-    <t>hokify GmbH</t>
+    <t>Stellenanzeigen.de GmbH &amp; Co. KG</t>
   </si>
   <si>
     <t>Gute-Jobs.de</t>
@@ -518,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,7 +552,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,7 +569,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -577,16 +577,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -597,13 +597,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -611,16 +611,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -628,16 +628,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -645,16 +645,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -662,10 +662,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>36</v>
@@ -679,10 +679,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>37</v>
@@ -696,16 +696,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -713,16 +713,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -730,16 +730,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -747,50 +747,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
